--- a/data/trans_dic/P21D_4_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_4_R-Habitat-trans_dic.xlsx
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,88</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,72</t>
+          <t>0,35; 1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,94</t>
+          <t>0,17; 0,87</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,39</t>
+          <t>0,05; 1,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,12</t>
+          <t>0,12; 1,08</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,11</t>
+          <t>0,72; 2,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,92</t>
+          <t>0,56; 1,81</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,59</t>
+          <t>0,07; 0,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,34</t>
+          <t>0,52; 1,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,85</t>
+          <t>0,35; 0,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21D_4_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_4_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P21D_4_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_4_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -634,12 +634,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,18</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 0,88</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,72</t>
+          <t>0,33; 1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,87</t>
+          <t>0,16; 0,94</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,47</t>
+          <t>0,05; 1,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,08</t>
+          <t>0,12; 1,12</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,47</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,81</t>
+          <t>0,76; 3,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,81</t>
+          <t>0,55; 1,92</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,6</t>
+          <t>0,08; 0,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,37</t>
+          <t>0,5; 1,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,84</t>
+          <t>0,36; 0,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21D_4_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_4_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0; 0,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,34; 1,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,88</t>
+          <t>0,12; 0,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,38%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,72</t>
+          <t>0,05; 1,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,94</t>
+          <t>0,11; 1,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,96%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,39</t>
+          <t>0,65; 2,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,12</t>
+          <t>0,49; 1,75</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,51%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,07; 0,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,11</t>
+          <t>0,48; 1,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,92</t>
+          <t>0,31; 0,78</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,59</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 1,34</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 0,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P21D_4_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_4_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,71</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,91</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,73</t>
+          <t>0,0; 0,79</t>
         </is>
       </c>
     </row>
@@ -634,12 +635,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,8</t>
+          <t>0,35; 1,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,83</t>
+          <t>0,09; 0,72</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,8</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,38</t>
+          <t>0,05; 1,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,09</t>
+          <t>0,11; 1,12</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,72</t>
+          <t>0,63; 2,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,75</t>
+          <t>0,48; 1,74</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,56</t>
+          <t>0,04; 0,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,31</t>
+          <t>0,52; 1,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,78</t>
+          <t>0,3; 0,76</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, necesitando atención sanitaria psicológica, no la pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1271</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3826</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2870</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4485</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3805</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3805</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2960</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1565; 8305</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1030; 7906</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1505</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2510</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6584</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>164; 4853</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>749; 7408</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1684</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7178</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8862</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5920</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3269; 14560</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4396; 16139</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3381</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13066</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>16447</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>676; 8695</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8255; 20783</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9917; 24816</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>